--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H2">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I2">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J2">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N2">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O2">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P2">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q2">
-        <v>2.901931579584001</v>
+        <v>66.42806297003733</v>
       </c>
       <c r="R2">
-        <v>26.117384216256</v>
+        <v>597.8525667303361</v>
       </c>
       <c r="S2">
-        <v>0.02294711361636934</v>
+        <v>0.4855841599467485</v>
       </c>
       <c r="T2">
-        <v>0.02294711361636934</v>
+        <v>0.4855841599467485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H3">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I3">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J3">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q3">
-        <v>0.1642942842986667</v>
+        <v>3.515271393162667</v>
       </c>
       <c r="R3">
-        <v>1.478648558688</v>
+        <v>31.63744253846401</v>
       </c>
       <c r="S3">
-        <v>0.001299162128716364</v>
+        <v>0.02569637033076912</v>
       </c>
       <c r="T3">
-        <v>0.001299162128716364</v>
+        <v>0.02569637033076912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H4">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I4">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J4">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N4">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q4">
-        <v>0.146283008616</v>
+        <v>5.027909774664</v>
       </c>
       <c r="R4">
-        <v>1.316547077544</v>
+        <v>45.25118797197599</v>
       </c>
       <c r="S4">
-        <v>0.001156737409824421</v>
+        <v>0.03675364349129827</v>
       </c>
       <c r="T4">
-        <v>0.001156737409824421</v>
+        <v>0.03675364349129826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H5">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I5">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J5">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N5">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O5">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P5">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q5">
-        <v>62.090273621952</v>
+        <v>54.78347118158933</v>
       </c>
       <c r="R5">
-        <v>558.812462597568</v>
+        <v>493.051240634304</v>
       </c>
       <c r="S5">
-        <v>0.4909807568511456</v>
+        <v>0.4004630670124749</v>
       </c>
       <c r="T5">
-        <v>0.4909807568511455</v>
+        <v>0.4004630670124749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H6">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I6">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J6">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q6">
-        <v>3.515271393162667</v>
+        <v>2.899057423210667</v>
       </c>
       <c r="R6">
-        <v>31.637442538464</v>
+        <v>26.091516808896</v>
       </c>
       <c r="S6">
-        <v>0.02779711714045313</v>
+        <v>0.02119189241032217</v>
       </c>
       <c r="T6">
-        <v>0.02779711714045313</v>
+        <v>0.02119189241032217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H7">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I7">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J7">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N7">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q7">
-        <v>3.129898752648</v>
+        <v>4.146535935696</v>
       </c>
       <c r="R7">
-        <v>28.169088773832</v>
+        <v>37.31882342126399</v>
       </c>
       <c r="S7">
-        <v>0.02474977108007564</v>
+        <v>0.03031086680838702</v>
       </c>
       <c r="T7">
-        <v>0.02474977108007564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.666649</v>
-      </c>
-      <c r="H8">
-        <v>4.999947</v>
-      </c>
-      <c r="I8">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J8">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>29.546424</v>
-      </c>
-      <c r="N8">
-        <v>88.63927200000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9033225104610835</v>
-      </c>
-      <c r="P8">
-        <v>0.9033225104610834</v>
-      </c>
-      <c r="Q8">
-        <v>49.243518013176</v>
-      </c>
-      <c r="R8">
-        <v>443.191662118584</v>
-      </c>
-      <c r="S8">
-        <v>0.3893946399935686</v>
-      </c>
-      <c r="T8">
-        <v>0.3893946399935687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.666649</v>
-      </c>
-      <c r="H9">
-        <v>4.999947</v>
-      </c>
-      <c r="I9">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J9">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.672785333333334</v>
-      </c>
-      <c r="N9">
-        <v>5.018356000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.05114204841740398</v>
-      </c>
-      <c r="P9">
-        <v>0.05114204841740398</v>
-      </c>
-      <c r="Q9">
-        <v>2.787946003014667</v>
-      </c>
-      <c r="R9">
-        <v>25.091514027132</v>
-      </c>
-      <c r="S9">
-        <v>0.02204576914823449</v>
-      </c>
-      <c r="T9">
-        <v>0.02204576914823449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.666649</v>
-      </c>
-      <c r="H10">
-        <v>4.999947</v>
-      </c>
-      <c r="I10">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J10">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.489401</v>
-      </c>
-      <c r="N10">
-        <v>4.468203</v>
-      </c>
-      <c r="O10">
-        <v>0.04553544112151264</v>
-      </c>
-      <c r="P10">
-        <v>0.04553544112151264</v>
-      </c>
-      <c r="Q10">
-        <v>2.482308687249</v>
-      </c>
-      <c r="R10">
-        <v>22.340778185241</v>
-      </c>
-      <c r="S10">
-        <v>0.01962893263161258</v>
-      </c>
-      <c r="T10">
-        <v>0.01962893263161258</v>
+        <v>0.03031086680838701</v>
       </c>
     </row>
   </sheetData>
